--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Day / Time</t>
   </si>
@@ -82,7 +82,27 @@
   <si>
     <t>CSC1024-G1-Lecture
 (Anwar Abdul Majeed)
-Uni Lecture Theatre 1</t>
+JC1</t>
+  </si>
+  <si>
+    <t>CSC1024-G5-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G4-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>ENG1044-G2-Tutorial
+(Herrick Yeap Han Lin)
+UE2-17</t>
+  </si>
+  <si>
+    <t>ENG1044-G6-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
   </si>
   <si>
     <t>Monday</t>
@@ -90,7 +110,86 @@
   <si>
     <t>CSC1202-G1-Lecture
 (Ranjit Singh)
-Uni Lecture Theatre 1</t>
+JC1</t>
+  </si>
+  <si>
+    <t>CSC1202-G2-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G5-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC1202-G3-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC1202-G4-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G6-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>MTH1114-G1-Lecture
+(Ali Afazalian Mand)
+JC1</t>
+  </si>
+  <si>
+    <t>CSC1202-G5-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC1202-G6-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Tutorial
+(Herrick Yeap Han Lin)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC1024-G1-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Lecture
+(Chin Teck Min)
+JC1</t>
+  </si>
+  <si>
+    <t>CSC1024-G3-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G5-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>MTH1114-G1-Tutorial
+(Jaya Krishna)
+UE2-17</t>
   </si>
   <si>
     <t>ENG1044-G3-Tutorial
@@ -98,7 +197,34 @@
 UC3-3</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>CSC1024-G2-Practical
+(Tan Kai Wei)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G4-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC1024-G4-Practical
+(Tan Kai Wei)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G2-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC1024-G6-Practical
+(Tan Kai Wei)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G3-Tutorial
+(Jaya Krishna)
+UE2-17</t>
   </si>
   <si>
     <t>CSC1202-G1-Practical
@@ -106,79 +232,13 @@
 UE2-16</t>
   </si>
   <si>
-    <t>ENG1044-G2-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Lecture
-(Ali Afazalian Mand)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
-    <t>CSC1202-G2-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G3-Tutorial
-(Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>CSC1202-G3-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Lecture
-(Chin Teck Min)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Tutorial
-(Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC1024-G1-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1024-G2-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G2-Tutorial
-(Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC1024-G3-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.93%</t>
+    <t>99.58%</t>
   </si>
 </sst>
 </file>
@@ -322,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -422,109 +482,165 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
+      <c r="F2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" ht="62.4" customHeight="true">
-      <c r="A3" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="3">
+      <c r="F3" t="s" s="4">
         <v>24</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>25</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s" s="5">
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="F5" t="s" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="B5" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s" s="4">
-        <v>31</v>
+      <c r="R5" t="s" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="A6" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="3">
-        <v>34</v>
+      <c r="F6" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s" s="5">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s" s="5">
         <v>42</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="R7" t="s" s="4">
-        <v>41</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="B8" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>44</v>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="A9" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="B10" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" ht="62.4" customHeight="true">
+      <c r="B11" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="32">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="R5:U5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -105,6 +105,11 @@
 UC3-3</t>
   </si>
   <si>
+    <t>MTH1114-G5-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -118,8 +123,13 @@
 UE2-16</t>
   </si>
   <si>
-    <t>MTH1114-G5-Tutorial
+    <t>MTH1114-G6-Tutorial
 (Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>ENG1044-G3-Tutorial
+(Herrick Yeap Han Lin)
 UE2-17</t>
   </si>
   <si>
@@ -131,11 +141,6 @@
     <t>CSC1202-G4-Practical
 (Chew Moi Tin)
 UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G6-Tutorial
-(Jaya Krishna)
-UE2-17</t>
   </si>
   <si>
     <t>Tuesday</t>
@@ -174,9 +179,17 @@
 JC1</t>
   </si>
   <si>
+    <t>ENG1044-G4-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
     <t>CSC1024-G3-Practical
 (Farrukh Hassan)
 UE2-16</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>ENG1044-G5-Tutorial
@@ -184,27 +197,14 @@
 UC3-3</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
     <t>MTH1114-G1-Tutorial
 (Jaya Krishna)
 UE2-17</t>
   </si>
   <si>
-    <t>ENG1044-G3-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
     <t>CSC1024-G2-Practical
 (Tan Kai Wei)
 UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G4-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
   </si>
   <si>
     <t>CSC1024-G4-Practical
@@ -482,7 +482,7 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
@@ -501,66 +501,69 @@
       <c r="F3" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="R3" t="s" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s" s="5">
         <v>34</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s" s="5">
-        <v>32</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
       <c r="F5" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="A6" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s" s="5">
-        <v>37</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s" s="5">
         <v>42</v>
+      </c>
+      <c r="N7" t="s" s="4">
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="B8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
@@ -568,10 +571,10 @@
         <v>54</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s" s="4">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>49</v>
       </c>
       <c r="L9" t="s" s="5">
         <v>51</v>
@@ -582,10 +585,10 @@
     </row>
     <row r="10" ht="62.4" customHeight="true">
       <c r="B10" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s" s="5">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="J10" t="s" s="4">
+        <v>50</v>
       </c>
       <c r="O10" t="s" s="4">
         <v>52</v>
@@ -593,10 +596,7 @@
     </row>
     <row r="11" ht="62.4" customHeight="true">
       <c r="B11" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,14 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="O2:R2"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="P4:S4"/>
-    <mergeCell ref="R5:U5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
@@ -635,8 +636,7 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="P9:S9"/>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Day / Time</t>
   </si>
@@ -85,29 +85,14 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1024-G5-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G4-Tutorial
+    <t>MTH1114-G2-Tutorial
 (Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>ENG1044-G2-Tutorial
-(Herrick Yeap Han Lin)
-UE2-17</t>
-  </si>
-  <si>
-    <t>ENG1044-G6-Tutorial
-(Herrick Yeap Han Lin)
 UC3-3</t>
   </si>
   <si>
-    <t>MTH1114-G5-Tutorial
+    <t>MTH1114-G3-Tutorial
 (Jaya Krishna)
-UE2-17</t>
+UC3-3</t>
   </si>
   <si>
     <t>Monday</t>
@@ -118,32 +103,63 @@
 JC1</t>
   </si>
   <si>
+    <t>CSC1024-G1-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC1024-G3-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>CSC1202-G3-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Lecture
+(Chin Teck Min)
+JC1</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>CSC1024-G2-Practical
+(Tan Kai Wei)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC1024-G4-Practical
+(Tan Kai Wei)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G2-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC1202-G1-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
     <t>CSC1202-G2-Practical
 (Chew Moi Tin)
 UE2-16</t>
   </si>
   <si>
-    <t>MTH1114-G6-Tutorial
-(Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>ENG1044-G3-Tutorial
-(Herrick Yeap Han Lin)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1202-G3-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1202-G4-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
+    <t>Thursday</t>
   </si>
   <si>
     <t>MTH1114-G1-Lecture
@@ -151,85 +167,14 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1202-G5-Practical
+    <t>CSC1202-G4-Practical
 (Chew Moi Tin)
 UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1202-G6-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Tutorial
-(Herrick Yeap Han Lin)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1024-G1-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Lecture
-(Chin Teck Min)
-JC1</t>
-  </si>
-  <si>
-    <t>ENG1044-G4-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC1024-G3-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>ENG1044-G5-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
   </si>
   <si>
     <t>MTH1114-G1-Tutorial
 (Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1024-G2-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1024-G4-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G2-Tutorial
-(Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1024-G6-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G3-Tutorial
-(Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1202-G1-Practical
-(Chew Moi Tin)
-UE2-16</t>
+UC3-3</t>
   </si>
   <si>
     <t>Friday</t>
@@ -238,7 +183,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.58%</t>
+    <t>98.94%</t>
   </si>
 </sst>
 </file>
@@ -382,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,165 +427,110 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="4">
         <v>23</v>
       </c>
       <c r="J2" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="A3" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="F3" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="R3" t="s" s="4">
+      <c r="F3" t="s" s="5">
         <v>27</v>
+      </c>
+      <c r="K3" t="s" s="5">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="A5" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="G6" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="F5" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="A6" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s" s="5">
+      <c r="K6" t="s" s="5">
         <v>37</v>
-      </c>
-      <c r="K6" t="s" s="5">
-        <v>38</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="B8" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
-      <c r="A9" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="B10" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" ht="62.4" customHeight="true">
-      <c r="B11" t="s" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="18">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="K3:N3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Day / Time</t>
   </si>
@@ -85,6 +85,11 @@
 JC1</t>
   </si>
   <si>
+    <t>MTH1114-G1-Tutorial
+(Jaya Krishna)
+UC3-3</t>
+  </si>
+  <si>
     <t>MTH1114-G2-Tutorial
 (Jaya Krishna)
 UC3-3</t>
@@ -103,17 +108,45 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1024-G1-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1024-G3-Practical
-(Farrukh Hassan)
-UE2-16</t>
+    <t>CSC1202-G4-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>ENG1044-G2-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>ENG1044-G4-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
+  </si>
+  <si>
+    <t>CSC1202-G1-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G1-Lecture
+(Ali Afazalian Mand)
+JC1</t>
+  </si>
+  <si>
+    <t>CSC1202-G2-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>CSC1202-G3-Practical
@@ -126,7 +159,22 @@
 JC1</t>
   </si>
   <si>
-    <t>Wednesday</t>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>MTH1114-G4-Tutorial
+(Jaya Krishna)
+UC3-4</t>
+  </si>
+  <si>
+    <t>CSC1024-G1-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G3-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
   </si>
   <si>
     <t>CSC1024-G2-Practical
@@ -134,9 +182,9 @@
 UE2-16</t>
   </si>
   <si>
-    <t>ENG1044-G1-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
+    <t>CSC1024-G3-Practical
+(Farrukh Hassan)
+UE2-16</t>
   </si>
   <si>
     <t>CSC1024-G4-Practical
@@ -144,46 +192,13 @@
 UE2-16</t>
   </si>
   <si>
-    <t>ENG1044-G2-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC1202-G1-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1202-G2-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Lecture
-(Ali Afazalian Mand)
-JC1</t>
-  </si>
-  <si>
-    <t>CSC1202-G4-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Tutorial
-(Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.94%</t>
+    <t>98.9%</t>
   </si>
 </sst>
 </file>
@@ -327,13 +342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -427,7 +442,7 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
@@ -435,102 +450,117 @@
       <c r="F2" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="K2" t="s" s="4">
         <v>24</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="62.4" customHeight="true">
       <c r="A3" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s" s="5">
-        <v>28</v>
+      <c r="O3" t="s" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="3">
-        <v>31</v>
+      <c r="F4" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>39</v>
-      </c>
       <c r="B5" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="F5" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="5">
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="A6" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="3">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="G6" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s" s="5">
-        <v>37</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="B8" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>45</v>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J4:M4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Day / Time</t>
   </si>
@@ -85,19 +85,14 @@
 JC1</t>
   </si>
   <si>
-    <t>MTH1114-G1-Tutorial
+    <t>ENG1044-G3-Tutorial
+(Herrick Yeap Han Lin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G5-Tutorial
 (Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>MTH1114-G2-Tutorial
-(Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>MTH1114-G3-Tutorial
-(Jaya Krishna)
-UC3-3</t>
+UE2-17</t>
   </si>
   <si>
     <t>Monday</t>
@@ -108,32 +103,32 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1202-G4-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>ENG1044-G2-Tutorial
-(Herrick Yeap Han Lin)
-UC3-4</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>ENG1044-G4-Tutorial
-(Herrick Yeap Han Lin)
-UC3-4</t>
+    <t>MTH1114-G4-Tutorial
+(Jaya Krishna)
+UE2-17</t>
   </si>
   <si>
     <t>CSC1202-G1-Practical
 (Chew Moi Tin)
 UE2-16</t>
+  </si>
+  <si>
+    <t>MTH1114-G6-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC1202-G2-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC1202-G3-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
   <si>
     <t>MTH1114-G1-Lecture
@@ -141,16 +136,26 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1202-G2-Practical
+    <t>CSC1202-G4-Practical
 (Chew Moi Tin)
 UE2-16</t>
   </si>
   <si>
+    <t>CSC1202-G5-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC1202-G6-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>CSC1202-G3-Practical
-(Chew Moi Tin)
+    <t>CSC1024-G6-Practical
+(Tan Kai Wei)
 UE2-16</t>
   </si>
   <si>
@@ -162,9 +167,14 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>MTH1114-G4-Tutorial
+    <t>ENG1044-G5-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>MTH1114-G1-Tutorial
 (Jaya Krishna)
-UC3-4</t>
+UE2-17</t>
   </si>
   <si>
     <t>CSC1024-G1-Practical
@@ -172,16 +182,16 @@
 UE2-16</t>
   </si>
   <si>
-    <t>ENG1044-G3-Tutorial
-(Herrick Yeap Han Lin)
-UC3-4</t>
-  </si>
-  <si>
     <t>CSC1024-G2-Practical
 (Tan Kai Wei)
 UE2-16</t>
   </si>
   <si>
+    <t>ENG1044-G6-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
     <t>CSC1024-G3-Practical
 (Farrukh Hassan)
 UE2-16</t>
@@ -192,13 +202,28 @@
 UE2-16</t>
   </si>
   <si>
+    <t>MTH1114-G2-Tutorial
+(Jaya Krishna)
+UE2-17</t>
+  </si>
+  <si>
+    <t>ENG1044-G4-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC1024-G5-Practical
+(Farrukh Hassan)
+UE2-16</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.9%</t>
+    <t>99.03%</t>
   </si>
 </sst>
 </file>
@@ -342,13 +367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -442,125 +467,150 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="J2" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="4">
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="J3" t="s" s="4">
         <v>24</v>
-      </c>
-      <c r="P2" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="A3" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s" s="4">
-        <v>30</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="F4" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s" s="5">
-        <v>35</v>
+      <c r="B4" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
-      <c r="B5" t="s" s="5">
-        <v>33</v>
+      <c r="F5" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="A6" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="J6" t="s" s="3">
-        <v>38</v>
+      <c r="B6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="A8" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="B7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="4">
+      <c r="N8" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="B9" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="J7" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s" s="5">
+      <c r="G9" t="s" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="B8" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s" s="5">
+      <c r="Q9" t="s" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="B10" t="s" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>48</v>
+      <c r="Q10" t="s" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="28">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="P6:S6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Day / Time</t>
   </si>
@@ -85,14 +85,19 @@
 JC1</t>
   </si>
   <si>
-    <t>ENG1044-G3-Tutorial
-(Herrick Yeap Han Lin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G5-Tutorial
+    <t>MTH1114-G1-Tutorial
 (Jaya Krishna)
-UE2-17</t>
+UC3-3</t>
+  </si>
+  <si>
+    <t>MTH1114-G2-Tutorial
+(Jaya Krishna)
+UC3-3</t>
+  </si>
+  <si>
+    <t>MTH1114-G3-Tutorial
+(Jaya Krishna)
+UC3-3</t>
   </si>
   <si>
     <t>Monday</t>
@@ -103,32 +108,32 @@
 JC1</t>
   </si>
   <si>
-    <t>MTH1114-G4-Tutorial
-(Jaya Krishna)
-UE2-17</t>
+    <t>CSC1202-G4-Practical
+(Chew Moi Tin)
+UE2-16</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Tutorial
+(Herrick Yeap Han Lin)
+UC3-3</t>
+  </si>
+  <si>
+    <t>ENG1044-G2-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>ENG1044-G4-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
   </si>
   <si>
     <t>CSC1202-G1-Practical
 (Chew Moi Tin)
 UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G6-Tutorial
-(Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC1202-G2-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1202-G3-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
   </si>
   <si>
     <t>MTH1114-G1-Lecture
@@ -136,26 +141,16 @@
 JC1</t>
   </si>
   <si>
-    <t>CSC1202-G4-Practical
+    <t>CSC1202-G2-Practical
 (Chew Moi Tin)
 UE2-16</t>
   </si>
   <si>
-    <t>CSC1202-G5-Practical
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>CSC1202-G3-Practical
 (Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1202-G6-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>CSC1024-G6-Practical
-(Tan Kai Wei)
 UE2-16</t>
   </si>
   <si>
@@ -167,14 +162,9 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>ENG1044-G5-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Tutorial
+    <t>MTH1114-G4-Tutorial
 (Jaya Krishna)
-UE2-17</t>
+UC3-4</t>
   </si>
   <si>
     <t>CSC1024-G1-Practical
@@ -182,16 +172,16 @@
 UE2-16</t>
   </si>
   <si>
+    <t>ENG1044-G3-Tutorial
+(Herrick Yeap Han Lin)
+UC3-4</t>
+  </si>
+  <si>
     <t>CSC1024-G2-Practical
 (Tan Kai Wei)
 UE2-16</t>
   </si>
   <si>
-    <t>ENG1044-G6-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
     <t>CSC1024-G3-Practical
 (Farrukh Hassan)
 UE2-16</t>
@@ -202,28 +192,13 @@
 UE2-16</t>
   </si>
   <si>
-    <t>MTH1114-G2-Tutorial
-(Jaya Krishna)
-UE2-17</t>
-  </si>
-  <si>
-    <t>ENG1044-G4-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC1024-G5-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.03%</t>
+    <t>98.9%</t>
   </si>
 </sst>
 </file>
@@ -367,13 +342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -467,150 +442,125 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="F2" t="s" s="4">
         <v>23</v>
       </c>
+      <c r="K2" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" ht="62.4" customHeight="true">
+      <c r="A3" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>28</v>
+      </c>
       <c r="J3" t="s" s="4">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="O3" t="s" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s" s="5">
-        <v>31</v>
+      <c r="F4" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
-      <c r="F5" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s" s="5">
-        <v>30</v>
+      <c r="B5" t="s" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="A6" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="P6" t="s" s="5">
-        <v>36</v>
+      <c r="J6" t="s" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>39</v>
+      <c r="F7" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
-      <c r="A8" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" t="s" s="5">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="R8" t="s" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
-      <c r="B9" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="Q9" t="s" s="4">
+      <c r="B10" t="s" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="B10" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="Q10" t="s" s="4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="22">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="N4:Q4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2024 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2024 S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Day / Time</t>
   </si>
@@ -82,123 +82,100 @@
   <si>
     <t>CSC1024-G1-Lecture
 (Anwar Abdul Majeed)
-JC1</t>
+Uni Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>CSC1024-G1-Practical
+(Farrukh Hassan)
+UW2-1</t>
+  </si>
+  <si>
+    <t>CSC1024-G2-Practical
+(Tan Kai Wei)
+UW2-2</t>
+  </si>
+  <si>
+    <t>CSC1024-G3-Practical
+(Farrukh Hassan)
+UW2-2</t>
+  </si>
+  <si>
+    <t>CSC1202-G1-Practical
+(Chew Moi Tin)
+UW2-2</t>
+  </si>
+  <si>
+    <t>CSC1202-G2-Practical
+(Chew Moi Tin)
+UW2-2</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>CSC1202-G1-Lecture
+(Ranjit Singh)
+Uni Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>ENG1044-G1-Tutorial
+(Herrick Yeap Han Lin)
+UW2-3</t>
+  </si>
+  <si>
+    <t>CSC1202-G3-Practical
+(Chew Moi Tin)
+UW2-2</t>
   </si>
   <si>
     <t>MTH1114-G1-Tutorial
 (Jaya Krishna)
-UC3-3</t>
+UW2-1</t>
+  </si>
+  <si>
+    <t>MTH1114-G1-Lecture
+(Ali Afazalian Mand)
+Uni Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>ENG1044-G2-Tutorial
+(Herrick Yeap Han Lin)
+UW2-1</t>
   </si>
   <si>
     <t>MTH1114-G2-Tutorial
 (Jaya Krishna)
-UC3-3</t>
+UW2-2</t>
   </si>
   <si>
     <t>MTH1114-G3-Tutorial
 (Jaya Krishna)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>CSC1202-G1-Lecture
-(Ranjit Singh)
-JC1</t>
-  </si>
-  <si>
-    <t>CSC1202-G4-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>ENG1044-G1-Tutorial
-(Herrick Yeap Han Lin)
-UC3-3</t>
-  </si>
-  <si>
-    <t>ENG1044-G2-Tutorial
-(Herrick Yeap Han Lin)
-UC3-4</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>ENG1044-G4-Tutorial
-(Herrick Yeap Han Lin)
-UC3-4</t>
-  </si>
-  <si>
-    <t>CSC1202-G1-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>MTH1114-G1-Lecture
-(Ali Afazalian Mand)
-JC1</t>
-  </si>
-  <si>
-    <t>CSC1202-G2-Practical
-(Chew Moi Tin)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>CSC1202-G3-Practical
-(Chew Moi Tin)
-UE2-16</t>
+UW2-2</t>
   </si>
   <si>
     <t>ENG1044-G1-Lecture
 (Chin Teck Min)
-JC1</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>MTH1114-G4-Tutorial
-(Jaya Krishna)
-UC3-4</t>
-  </si>
-  <si>
-    <t>CSC1024-G1-Practical
-(Farrukh Hassan)
-UE2-16</t>
+Uni Lecture Theatre 1</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>ENG1044-G3-Tutorial
 (Herrick Yeap Han Lin)
-UC3-4</t>
-  </si>
-  <si>
-    <t>CSC1024-G2-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1024-G3-Practical
-(Farrukh Hassan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC1024-G4-Practical
-(Tan Kai Wei)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Friday</t>
+UW2-2</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.9%</t>
+    <t>99.59%</t>
   </si>
 </sst>
 </file>
@@ -342,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -442,125 +419,109 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="J2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="F3" t="s" s="5">
         <v>24</v>
-      </c>
-      <c r="P2" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="A3" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s" s="4">
-        <v>30</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="F5" t="s" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="F6" t="s" s="4">
         <v>32</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="B5" t="s" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="A6" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="3">
-        <v>38</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="B8" t="s" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="A9" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="F7" t="s" s="4">
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="J7" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="B8" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s" s="5">
+      <c r="B11" t="s" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
